--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snehalp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Notice No.</t>
   </si>
@@ -148,24 +148,12 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Bita Consulting</t>
-  </si>
-  <si>
-    <t>A/Bita Pharma Company</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>a a</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -181,13 +169,22 @@
     <t>Won</t>
   </si>
   <si>
-    <t>fe@bitaconsulting.co.in</t>
-  </si>
-  <si>
-    <t>abhi@gmail.com</t>
-  </si>
-  <si>
-    <t>ajay@tlregtech.in</t>
+    <t>1 BHIM ETC</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t>abc External</t>
+  </si>
+  <si>
+    <t>companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Ref no-5647333</t>
   </si>
 </sst>
 </file>
@@ -195,7 +192,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -205,6 +202,7 @@
     <font>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -281,7 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -719,9 +717,9 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
     </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="5">
-        <v>456654</v>
+    <row r="2" spans="1:39" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>33</v>
@@ -748,32 +746,30 @@
         <v>38</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T2" s="2">
         <v>4000</v>
@@ -794,26 +790,24 @@
         <v>6000</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AD2" s="7"/>
       <c r="AE2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -825,10 +819,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AC2" r:id="rId1"/>
-    <hyperlink ref="AD2" r:id="rId2"/>
-    <hyperlink ref="L2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Notice No.</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Notice Result(Won/Loss/In Progress/Settled)</t>
   </si>
   <si>
-    <t>Notice as on date 28Dec23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inward </t>
   </si>
   <si>
@@ -184,7 +181,10 @@
     <t>Tax</t>
   </si>
   <si>
-    <t>Ref no-5647333</t>
+    <t>Notice as on date 220124</t>
+  </si>
+  <si>
+    <t>Notice as on date 260124</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,58 +718,58 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="30">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>23131</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="4">
         <v>45292</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" s="2">
         <v>4000</v>
@@ -790,24 +790,24 @@
         <v>6000</v>
       </c>
       <c r="Z2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="AB2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>

--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Notice No.</t>
   </si>
@@ -166,25 +166,16 @@
     <t>Won</t>
   </si>
   <si>
-    <t>1 BHIM ETC</t>
-  </si>
-  <si>
-    <t>ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t>abc External</t>
-  </si>
-  <si>
-    <t>companyadmin@avantis.info</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
     <t>Notice as on date 220124</t>
   </si>
   <si>
-    <t>Notice as on date 260124</t>
+    <t>Notice as on date 270124</t>
+  </si>
+  <si>
+    <t>Deepali Dev</t>
   </si>
 </sst>
 </file>
@@ -574,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,12 +708,12 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
     </row>
-    <row r="2" spans="1:39" ht="30">
+    <row r="2" spans="1:39">
       <c r="A2" s="5">
-        <v>23131</v>
+        <v>8712</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -740,30 +731,26 @@
         <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="P2" s="5"/>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
@@ -798,9 +785,7 @@
       <c r="AB2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="5" t="s">
         <v>43</v>
@@ -817,10 +802,7 @@
       <c r="AM2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Notice No.</t>
   </si>
@@ -172,10 +172,13 @@
     <t>Notice as on date 220124</t>
   </si>
   <si>
-    <t>Notice as on date 270124</t>
-  </si>
-  <si>
     <t>Deepali Dev</t>
+  </si>
+  <si>
+    <t>Notice as on date 300224</t>
+  </si>
+  <si>
+    <t>Ref no-4508765</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,11 +712,11 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="5">
-        <v>8712</v>
+      <c r="A2" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -740,7 +743,7 @@
         <v>45</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="5"/>

--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Notice No.</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Won</t>
   </si>
   <si>
-    <t>Tax</t>
-  </si>
-  <si>
     <t>Notice as on date 220124</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
   </si>
   <si>
     <t>Notice as on date 300224</t>
-  </si>
-  <si>
-    <t>Ref no-4508765</t>
   </si>
 </sst>
 </file>
@@ -569,7 +563,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,11 +706,11 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="5" t="s">
-        <v>49</v>
+      <c r="A2" s="5">
+        <v>34562390</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -734,16 +728,14 @@
         <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="5"/>
